--- a/20190323每周一记.xlsx
+++ b/20190323每周一记.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B3983382-807A-4146-B739-19134CD1B49C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B51C19-42CA-4E34-ADD0-895BCE7031DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,22 @@
   </si>
   <si>
     <t>java自定义注解、spring中注解的使用了解、@RequestMapping、@Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring aop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切面编程的概念及基本用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring aop、idea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aop环绕通知、idea一些常用快捷方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +119,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -381,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -438,6 +454,25 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43548</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20190323每周一记.xlsx
+++ b/20190323每周一记.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B51C19-42CA-4E34-ADD0-895BCE7031DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA618CB-3C9A-456F-8FF1-652B1E504307}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,14 @@
   </si>
   <si>
     <t>aop环绕通知、idea一些常用快捷方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring NamedParameterJdbcTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring 模块连接数据库（使用dbcp的方式连接）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,16 +405,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
     <col min="3" max="3" width="65.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -473,6 +481,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20190323每周一记.xlsx
+++ b/20190323每周一记.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA618CB-3C9A-456F-8FF1-652B1E504307}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FA81CA-EDA3-4DB0-9CB1-3A6BA5C816B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>spring 模块连接数据库（使用dbcp的方式连接）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resful深入理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring整合mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +139,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -492,6 +504,22 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20190323每周一记.xlsx
+++ b/20190323每周一记.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FA81CA-EDA3-4DB0-9CB1-3A6BA5C816B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1618324F-0CD9-41FE-B730-7454F9963F90}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>spring整合mybatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mybatis反向生成pojo、mapper接口、mapper映射文件、myabtis集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志的使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -519,6 +527,17 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/20190323每周一记.xlsx
+++ b/20190323每周一记.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1618324F-0CD9-41FE-B730-7454F9963F90}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC345295-C8C4-40BE-9EC0-F335F4609907}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>日志的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log4j、slf4j+logback</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +432,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -538,6 +542,9 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/20190323每周一记.xlsx
+++ b/20190323每周一记.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC345295-C8C4-40BE-9EC0-F335F4609907}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C69B8C6-4E48-4EEC-A50D-5BEF617D4AE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>log4j、slf4j+logback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java基本类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object、String等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,20 +437,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="3" width="65.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="65.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43540</v>
       </c>
@@ -464,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43541</v>
       </c>
@@ -475,7 +483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43547</v>
       </c>
@@ -486,7 +494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -494,7 +502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43548</v>
       </c>
@@ -505,7 +513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43551</v>
       </c>
@@ -516,7 +524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43568</v>
       </c>
@@ -527,7 +535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -535,7 +543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43569</v>
       </c>
@@ -544,6 +552,17 @@
       </c>
       <c r="C10" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/20190323每周一记.xlsx
+++ b/20190323每周一记.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C69B8C6-4E48-4EEC-A50D-5BEF617D4AE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19579DD6-72AD-417F-89A7-F4434365B26B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,22 @@
   </si>
   <si>
     <t>object、String等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io基本用法及架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mybatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mybatis原理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -565,6 +581,25 @@
         <v>22</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20190323每周一记.xlsx
+++ b/20190323每周一记.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19579DD6-72AD-417F-89A7-F4434365B26B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8038A4AC-4E2D-4751-B929-9F401D37737E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,14 @@
   </si>
   <si>
     <t>mybatis原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String\StringBuilder\StringBuffer\泛型、容器、javaIO、Arrays等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,20 +461,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="65.75" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="65.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43540</v>
       </c>
@@ -488,7 +496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43541</v>
       </c>
@@ -499,7 +507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43547</v>
       </c>
@@ -510,7 +518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -518,7 +526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43548</v>
       </c>
@@ -529,7 +537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43551</v>
       </c>
@@ -540,7 +548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43568</v>
       </c>
@@ -551,7 +559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -559,7 +567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43569</v>
       </c>
@@ -570,7 +578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43575</v>
       </c>
@@ -581,7 +589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43585</v>
       </c>
@@ -592,12 +600,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43588</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/20190323每周一记.xlsx
+++ b/20190323每周一记.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8038A4AC-4E2D-4751-B929-9F401D37737E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AFE9C9-27AD-42F8-9FBE-D324724EFD6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,14 @@
   </si>
   <si>
     <t>String\StringBuilder\StringBuffer\泛型、容器、javaIO、Arrays等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-04容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collecion\List\ArrayList\LinkedList\Vector\Map\HashMap\TreeMap\Set\HashSet\TreeSet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,20 +469,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="65.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="82.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43540</v>
       </c>
@@ -496,7 +504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43541</v>
       </c>
@@ -507,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43547</v>
       </c>
@@ -518,7 +526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -526,7 +534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43548</v>
       </c>
@@ -537,7 +545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43551</v>
       </c>
@@ -548,7 +556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43568</v>
       </c>
@@ -559,7 +567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -567,7 +575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43569</v>
       </c>
@@ -578,7 +586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43575</v>
       </c>
@@ -589,7 +597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43585</v>
       </c>
@@ -600,7 +608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -608,7 +616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43588</v>
       </c>
@@ -617,6 +625,14 @@
       </c>
       <c r="C14" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/20190323每周一记.xlsx
+++ b/20190323每周一记.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AFE9C9-27AD-42F8-9FBE-D324724EFD6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3F8751-25B6-4120-ABC3-C439D1A1CD82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,11 +138,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-05-04容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Collecion\List\ArrayList\LinkedList\Vector\Map\HashMap\TreeMap\Set\HashSet\TreeSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/05/04容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常、枚举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception简单用法的，自定义Exception，Enumeration简单用法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,20 +477,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="82.125" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="82.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43540</v>
       </c>
@@ -504,7 +512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43541</v>
       </c>
@@ -515,7 +523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43547</v>
       </c>
@@ -526,7 +534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -534,7 +542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43548</v>
       </c>
@@ -545,7 +553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43551</v>
       </c>
@@ -556,7 +564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43568</v>
       </c>
@@ -567,7 +575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -575,7 +583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43569</v>
       </c>
@@ -586,7 +594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43575</v>
       </c>
@@ -597,7 +605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43585</v>
       </c>
@@ -608,7 +616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -616,7 +624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43588</v>
       </c>
@@ -627,12 +635,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43590</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/20190323每周一记.xlsx
+++ b/20190323每周一记.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3F8751-25B6-4120-ABC3-C439D1A1CD82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23818C7-24B6-4717-833F-A711CE72EDD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,14 @@
   </si>
   <si>
     <t>Exception简单用法的，自定义Exception，Enumeration简单用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程的三种实现方式、死锁、同步synchronize、生产者消费者模式（信号灯法、管程法）、volatile用法、锁的概念、可重入锁、任务调度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,17 +485,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="82.109375" customWidth="1"/>
+    <col min="3" max="3" width="104.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -652,6 +660,17 @@
       </c>
       <c r="C16" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43595</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
